--- a/src/attributions/attributions_ig_traj_319.xlsx
+++ b/src/attributions/attributions_ig_traj_319.xlsx
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0.6307830133055545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09635702138928652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006696754468375741</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02740508766173913</v>
+        <v>-0.1137854720572212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.1212063973579957</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
@@ -1603,52 +1603,52 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.04649462220367228</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01056133110471484</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006151207868700022</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.002240006162381944</v>
+        <v>0.00737109557255894</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.01452723642026616</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.2981717562672801</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.009407053797432948</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.07345741021245619</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.07483018541826442</v>
+        <v>0.2438930067243738</v>
       </c>
       <c r="X3" t="n">
         <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0.01188203271204389</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1657,157 +1657,157 @@
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.284629193543439</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.05152414425354707</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1608048426754317</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1636000874347022</v>
+        <v>-0.1769428009876433</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>-0.02974567802583148</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.2630408078678596</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.04652914767427811</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001619024134684586</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.02019728036735858</v>
+        <v>0.1410614976687376</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0</v>
+        <v>-0.06565140244472241</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>1.153570912877359</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.04870047397874792</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3013213662897147</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1393933739381976</v>
+        <v>0.3658280076687258</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>-0.3618581734768607</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0.03980501511107239</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0003590573247617195</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.07189221501390336</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.03308971981575985</v>
+        <v>-0.1252533396313057</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>0.0273873862775735</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>-0.3107315695136774</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.1760443045268934</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.1562340220377602</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.02500747506552846</v>
+        <v>0.1377067358715378</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>0.1916405808360243</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.5707690535339038</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.03244902485531351</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.05944874938271205</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.009158790553977929</v>
+        <v>0.3584811118250953</v>
       </c>
       <c r="BZ3" t="n">
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>-0.06445381498517941</v>
       </c>
       <c r="CB3" t="n">
         <v>-0</v>
@@ -1819,103 +1819,103 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0</v>
+        <v>-0.3429010276044209</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.05048889660836971</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0.0235977218185029</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.06290709952203895</v>
+        <v>-0.03567443242445035</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0.1343244793408382</v>
       </c>
       <c r="CK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0.002970991990547838</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.2346645354338248</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0.1279111103132123</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.05931092547931996</v>
+        <v>-0.3762068523782481</v>
       </c>
       <c r="CR3" t="n">
         <v>0</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0.03638932912266875</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
         <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>-0.3613120174206236</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.0373803781874377</v>
+        <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.03243341122231443</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.0574638824047746</v>
+        <v>-0.08720301102994747</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>0.1513357047615957</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0</v>
+        <v>-0.3309364039092341</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.05706829687663769</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0.06391601729095936</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1435760942687994</v>
+        <v>0.2346110997204132</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0.08535407475023642</v>
       </c>
       <c r="DL3" t="n">
         <v>-0</v>
@@ -1924,106 +1924,106 @@
         <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0</v>
+        <v>-0.13248302967384</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.02008656674607791</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.0906971112772533</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.0259663228193045</v>
+        <v>-0.2555543262521704</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0</v>
+        <v>0.0752872163316558</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
         <v>-0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0.4166242972843223</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.06172185003142627</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-0.08985660269472268</v>
+        <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.07070491618547554</v>
+        <v>-0.1276109299063513</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0</v>
+        <v>0.04684868928551229</v>
       </c>
       <c r="ED3" t="n">
         <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
         <v>-0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.2403415734029576</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.03433132541066302</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.08317411622676049</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01822998313708261</v>
+        <v>0.077885614620022</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0.2019606160594069</v>
       </c>
       <c r="EM3" t="n">
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.221416947849722</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01897690106459677</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.006068227551513801</v>
+        <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0864234187749149</v>
+        <v>-0.1454848226210043</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>-0.07808883184399931</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
@@ -2035,52 +2035,52 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.3797499465028073</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.05469958543322417</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.05196513235300833</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.0339875820562667</v>
+        <v>-0.1389737417046077</v>
       </c>
       <c r="FC3" t="n">
         <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0.1535853223010761</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>0.01703578158650223</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04247425114783868</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.04509190268943071</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.100002615486935</v>
+        <v>-0.195341288370843</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>-0.0103568657272283</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
@@ -2089,52 +2089,52 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.05260610480226133</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.01085070927358668</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0.01945094027459961</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.007223156124827524</v>
+        <v>-0.02004835364850027</v>
       </c>
       <c r="FU3" t="n">
         <v>-0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0.09416707317976589</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0.1639165972838273</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01794857959683151</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0.0716800826444649</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0.2020212534064028</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
         <v>-0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2711,52 +2711,52 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3917265639139932</v>
+        <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>-0.6865085277384855</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2409937108266582</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7671673113064909</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1689800153538198</v>
+        <v>0.1502897971190082</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>-0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0105667786031139</v>
+        <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.01305109952160042</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005964738176923812</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0227501010723038</v>
       </c>
       <c r="N5" t="n">
-        <v>0.000347074234423037</v>
+        <v>-0.002416996065639141</v>
       </c>
       <c r="O5" t="n">
         <v>-0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
@@ -2765,19 +2765,19 @@
         <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.0782025807074667</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.3282798509168379</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.02024924076874215</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.08670181413581193</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1235596596815978</v>
+        <v>-0.1907479403307571</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -2792,46 +2792,46 @@
         <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1697777832717998</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>-0.3389284215487919</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02631198634273933</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.09051292821893984</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3430002454428571</v>
+        <v>0.1347474757229267</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1243625269584275</v>
+        <v>-0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>-0.386665076177764</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.1143208817101915</v>
+        <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>0.2046625946541955</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04372855873665678</v>
+        <v>0.04490212281133383</v>
       </c>
       <c r="AP5" t="n">
         <v>-0</v>
@@ -2840,28 +2840,28 @@
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5411430705557373</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>-1.703958544067629</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.6444710076533561</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.642634109567808</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02340015065094784</v>
+        <v>-0.1046556823114055</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
         <v>-0</v>
@@ -2873,73 +2873,73 @@
         <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.03910581637808745</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>-8.143417641898445e-11</v>
       </c>
       <c r="BE5" t="n">
-        <v>-6.59039116262403e-11</v>
+        <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.1115464986700419</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.07540479739560037</v>
+        <v>0.1463856250954166</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.1318600442887731</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.394930895304933</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.2248590473249181</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.09796955983364329</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.2286875017371464</v>
+        <v>-0.2066526582586385</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.4126152347332204</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>-0.8871178954885434</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.2284580022585463</v>
+        <v>-0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.4034108906647306</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.08966732076329177</v>
+        <v>-0.2028070654945834</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,52 +2948,52 @@
         <v>-0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.2087409609237388</v>
+        <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.3970731405213271</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.1723232066113639</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>-0.2080434058258332</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.1022557737132796</v>
+        <v>0.09215437270741078</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.1393489831340957</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.2489278079478302</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.08217014737721089</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0.2849380566679569</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.3847260718892341</v>
+        <v>0.2110533114456414</v>
       </c>
       <c r="CR5" t="n">
         <v>-0</v>
@@ -3002,52 +3002,52 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
         <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.165297321348226</v>
+        <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.4185013512052779</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.174569716134456</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>-0.2960825175659798</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.1777432502870402</v>
+        <v>0.05904399745025574</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.1300894925533519</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.6440743776658021</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.3081481067996014</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0</v>
+        <v>-0.08087683298450681</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0916571129050238</v>
+        <v>-0.09359585188777024</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
@@ -3056,25 +3056,25 @@
         <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>-0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0.1555531971464479</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.07202348270466813</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.106263485392968</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.02643842161879199</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.09748037901032354</v>
+        <v>0.2009488980433888</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
@@ -3089,46 +3089,46 @@
         <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.08401209902019549</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.2152066559603375</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.1128201554379234</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>-0.07277068977342423</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.1881055183178929</v>
+        <v>0.2188962902367441</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.2466587930295705</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.4110206387045223</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.2225693331308143</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>-0.08533769411109808</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.03218746053473972</v>
+        <v>-0.2479976820266469</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
@@ -3140,192 +3140,192 @@
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.02067880534847711</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.3987457081056032</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.1893691824290213</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.3839903375653442</v>
       </c>
       <c r="ES5" t="n">
-        <v>-0.1638305629547717</v>
+        <v>0.1435947014504796</v>
       </c>
       <c r="ET5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.1894852978348747</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.4525494413643148</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.1818193798158501</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>-0.2551351920339113</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.1355896294948418</v>
+        <v>0.164833692212381</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0.2344783026529137</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.1819118236371616</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.007617820949753827</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0.3339673596883868</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.05633811866280873</v>
+        <v>0.2534054900454376</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0.1114893566606959</v>
+        <v>-0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.05497878800955967</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001370336420365449</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>-0.3129336889351532</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.004992764395881275</v>
+        <v>0.01951719417388581</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
         <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0.003124528575014519</v>
+        <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.05374496499568995</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.02115361462975385</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0</v>
+        <v>0.09705909773797958</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2359255164858554</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.5612517072079306</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-0.2367072674587111</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.05214680047727648</v>
+        <v>-0.05690861260242547</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01128014954028003</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0255814702072843</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.05922514328558327</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0758696788509929</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.003774500639989353</v>
+        <v>-0.003357929726345081</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002317610877845043</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3334,79 +3334,79 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02247427748471808</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.132023825231223</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.01219233796618984</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.08685136348071811</v>
+        <v>0.01434675376505924</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.04211460474135763</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.03589948763224255</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.1195214110864614</v>
       </c>
       <c r="AD6" t="n">
         <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-0.03790168286089422</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0664773126982206</v>
+        <v>0.1536960049940838</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.003843055411035925</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
         <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.09194107343615614</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.1187359306337981</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>-0.0836650328490743</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.03456617075776606</v>
+        <v>-0.2092796714786555</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02335187701534116</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3415,52 +3415,52 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.2976100843684643</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0</v>
+        <v>0.8249227375327709</v>
       </c>
       <c r="AV6" t="n">
         <v>-0</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0</v>
+        <v>-0.3972600136451407</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.05822362761007802</v>
+        <v>0.1893054164242115</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.08856266215078787</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0284291798681543</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0</v>
+        <v>0.06483343699569269</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0.07102986481368438</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.01814532460023238</v>
+        <v>-0.03788566405042044</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>-0.02098962008274356</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,187 +3469,187 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.05352791946476466</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0.01268370479412346</v>
       </c>
       <c r="BN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>0.0386484885326218</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.09575808445964105</v>
+        <v>0.3057631168653159</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0405471954432692</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.2048840307644401</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.418870837735645</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>-0.06764663714034357</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01582881512103951</v>
+        <v>0.05302198802955849</v>
       </c>
       <c r="BZ6" t="n">
         <v>-0</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.03243410765372735</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
         <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.0944180565482048</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.1677883773606476</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0</v>
+        <v>0.1701237361733873</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01522937209048293</v>
+        <v>-0.05184549500215233</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0.02670837001502628</v>
+        <v>-0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.0553694797294368</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>-0</v>
+        <v>-0.005591918083767505</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0</v>
+        <v>-0.1918587110354624</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.1505857976273723</v>
+        <v>-0.359605919173731</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>-0.0513078236862537</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.08127615691531161</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.1789721938049169</v>
       </c>
       <c r="CX6" t="n">
         <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0.2000544202585205</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.006215140565453891</v>
+        <v>-0.04085023269022525</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0.00975849073580134</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.03446164472180908</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.2733480682211984</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>0.4101932791269873</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.02037548796364408</v>
+        <v>0.0001689665890014796</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0.03768078725193112</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.04502329198808777</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.162789880831287</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>-0.1160095292081591</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.001386784802969168</v>
+        <v>-0.0486634600812138</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT6" t="n">
-        <v>-0.08923553950225764</v>
+        <v>0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,79 +3658,79 @@
         <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.01206617812816713</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>0.1661309999430051</v>
       </c>
       <c r="DY6" t="n">
         <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>-0</v>
+        <v>0.01396173134387646</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.07146459826356437</v>
+        <v>-0.0365683202580817</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.008399904341612021</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.1473681463543177</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.1856983285942256</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0</v>
+        <v>-0.4478055939785484</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.03694071828218601</v>
+        <v>0.09798098004553829</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.06205563583347386</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
         <v>-0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.07125083071810583</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.1528028721656787</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0</v>
+        <v>0.1683671365013918</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.08041645153690008</v>
+        <v>-0.1065444186444907</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.04278885000776758</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,666 +3739,666 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.08335316879350699</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.1878195970013871</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>0</v>
+        <v>0.1931748746045271</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.01409214621851291</v>
+        <v>-0.04944479951741659</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.008125622010990385</v>
+        <v>-0</v>
       </c>
       <c r="FE6" t="n">
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
-        <v>-0.08551758874737792</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>0.1031428729346771</v>
       </c>
       <c r="FI6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0</v>
+        <v>0.04302535922477749</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.04930857016379082</v>
+        <v>0.03144418475955625</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01093876994873526</v>
+        <v>-0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0.02369105578282904</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.05305569743433073</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>-0</v>
+        <v>-0.03410918798431225</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.00441985614750439</v>
+        <v>-0.255457961427902</v>
       </c>
       <c r="FU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV6" t="n">
-        <v>-0.03353895814003124</v>
+        <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.07431614881516097</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>-0</v>
+        <v>-0.04454727541507415</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0.03397746197965999</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0.001936647013036557</v>
+        <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>-0.06596495065926718</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2025321294339853</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.2539374967827356</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03133652417556717</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08264434804270394</v>
+        <v>0.2172531623971761</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.005064227411030432</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.00970854378193676</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>-0.0006890056125137216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01862618021925255</v>
+        <v>-0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.02373199288147149</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.007743615381045742</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.009852322539196212</v>
+        <v>0.02107656414128677</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>-0.0001320463575392337</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005781398774145566</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0.009378240259440064</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01753759839907559</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.03622953471075113</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.005107474275659035</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02448889311846971</v>
+        <v>0.06543785706396733</v>
       </c>
       <c r="X7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.001440699604320293</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.03099535435591077</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0.03876702726351169</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1924651780806121</v>
+        <v>-0</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0.01523846433939323</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.1020417889727157</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.07853029350839122</v>
+        <v>-0.1008860372393822</v>
       </c>
       <c r="AG7" t="n">
         <v>-0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.07975805001047838</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01778695832046546</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0.005574765841774045</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.1278514627427042</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>-0.04859177902567104</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0003836699956237806</v>
+        <v>-0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03573016234349766</v>
+        <v>-0.02768967967971995</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0.05258627370814305</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.02122396864083213</v>
+        <v>-0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>-0.03038616151354694</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2248144115483302</v>
+        <v>-0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>0.4072457101498411</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06756900420132447</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1062521458755155</v>
+        <v>0.6123125244989408</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0.2295878230715977</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1285307937464073</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
         <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>-0.0651610044282652</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.03977578232139471</v>
+        <v>0</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>-0.0077482234452472</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.05357297881639098</v>
+        <v>-0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.02823922316418765</v>
+        <v>0.03725556410243235</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0.02097006825493407</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.02178179605504292</v>
+        <v>0</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0.05458209030750746</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.007628317780299586</v>
+        <v>-0</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0</v>
+        <v>0.0776822141658062</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.07673266136310719</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03623418568354692</v>
+        <v>0.1429026396722899</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0.09358094242249401</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03336192969734254</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>-0.004366114518995902</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1116099852122957</v>
+        <v>-0</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>0.1818801636715014</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.01770483422191948</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1001107257957093</v>
+        <v>0.3330504781116913</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0.04160386606028341</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0.0140805128818558</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>0.01324871866760038</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0.07268748506326492</v>
+        <v>-0</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>-0.05382220616046946</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.0008286353807528108</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.04131890869720979</v>
+        <v>-0.06316887616325863</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0</v>
+        <v>0.003871946801658752</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0.0008955217381063581</v>
+        <v>-0</v>
       </c>
       <c r="CL7" t="n">
         <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0</v>
+        <v>-0.04655211952749864</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0.08630579922829777</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>0.06628961109042522</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.06180631419029377</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.1352510431507743</v>
+        <v>-0.4295054240565387</v>
       </c>
       <c r="CR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0</v>
+        <v>-0.1326371351517017</v>
       </c>
       <c r="CT7" t="n">
-        <v>-0.003975887026594098</v>
+        <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>-0.01462016631315086</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0.08916836358967706</v>
+        <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>0</v>
+        <v>-0.05598685087227507</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.01138744147457262</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.04249534382960379</v>
+        <v>-0.05169801661830114</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>0.008617241874832066</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0.01071413418964558</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
         <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>0.08559695251575425</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0.0603896130218756</v>
+        <v>0</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>-0.0542488171143944</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.007056324729990644</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.1080374746780218</v>
+        <v>0.07870398211305159</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>-0.03511934813055043</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0.04812664935789458</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
         <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0.1123497713003989</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.04309273561248174</v>
+        <v>-0</v>
       </c>
       <c r="DP7" t="n">
-        <v>0</v>
+        <v>-0.0255920453073697</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.03749738706297027</v>
+        <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.04796084399711043</v>
+        <v>-0.02263216936398301</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0.01126287849718611</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.05867017118693543</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0.01925154809839605</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.04392408602693884</v>
+        <v>-0</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0</v>
+        <v>-0.06224262681456037</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.009022443121768278</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.07014536634831532</v>
+        <v>-0.2080674572619265</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>-0.05547878923276085</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0.02049862806085482</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0</v>
+        <v>-0.03555824703492624</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0.04305056002775969</v>
+        <v>-0</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0.1139234113367323</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.07020673235710959</v>
+        <v>-0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.04911197660957224</v>
+        <v>-0.06141019274701472</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0</v>
+        <v>-0.04615486951175594</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.03311929126755741</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0</v>
+        <v>0.1394379728258448</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0.08206421264257474</v>
+        <v>0</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>-0.01812550962820374</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.03293915932887654</v>
+        <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.04592421483780762</v>
+        <v>-0.2103041183070886</v>
       </c>
       <c r="ET7" t="n">
         <v>0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0.1114209317131596</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.03530874143635684</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0.0106003043603052</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0.08896790770498465</v>
+        <v>-0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0</v>
+        <v>-0.0483102309671113</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.006473439543607847</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.05418488987677947</v>
+        <v>-0.04242526012600149</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0</v>
+        <v>-0.01012693694011217</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01544254688995511</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0</v>
+        <v>0.09876196970635691</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0.08779257675874319</v>
+        <v>0</v>
       </c>
       <c r="FI7" t="n">
-        <v>0</v>
+        <v>-0.06852076650697403</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.03265088752192628</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.04496470617698787</v>
+        <v>-0.08240400143774661</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0.1778840217146625</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.08173296368435456</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0.1152827145519482</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0.05223922818723541</v>
+        <v>-0</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>0.05721879728000898</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0.03494057469871872</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.008877158973005219</v>
+        <v>0.02036436487947244</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>-0.2035690260477959</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0.04549172080130219</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>-0</v>
+        <v>0.01875090481225128</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.03128182666461216</v>
+        <v>-0</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0</v>
+        <v>0.0961767284601401</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0.1292169335084012</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,33 +4407,33 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0.1267270076182554</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.04121564982443508</v>
+        <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3182435468338913</v>
+        <v>0.08696240156983921</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1495581458434588</v>
+        <v>-0.01731361992616592</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2243073764272887</v>
+        <v>-0.06954796910455054</v>
       </c>
       <c r="G8" t="n">
         <v>-0</v>
@@ -4442,13 +4442,13 @@
         <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07953654243152683</v>
+        <v>0.0184867951896945</v>
       </c>
       <c r="L8" t="n">
         <v>-0</v>
@@ -4457,13 +4457,13 @@
         <v>-0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02062176519362482</v>
+        <v>-0.002716519263048792</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004460799069273255</v>
+        <v>0.0009129456448237655</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,52 +4472,52 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.07326386232411734</v>
+        <v>0.001218885473475195</v>
       </c>
       <c r="U8" t="n">
         <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00687557052302455</v>
+        <v>-0.0233553525514248</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.07939616117107215</v>
+        <v>-0.002797837293870474</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1308758200709897</v>
+        <v>0.00756372710224291</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.06188590004777122</v>
+        <v>0.02322308041325812</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2551684301013709</v>
+        <v>0.007023614909762336</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
@@ -4526,28 +4526,28 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0897111080084261</v>
+        <v>0.01357988103943641</v>
       </c>
       <c r="AM8" t="n">
         <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.01649220776083893</v>
+        <v>-0.002931606364376383</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.1497575992778585</v>
+        <v>-0.04285315088719167</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -4556,22 +4556,22 @@
         <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2864824874102561</v>
+        <v>0.09314149380144533</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01000890816218472</v>
+        <v>-0.01425275628103752</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.1393092949631285</v>
+        <v>-0.0635720411149288</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4583,52 +4583,52 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.07934151333366984</v>
+        <v>0.02069776785417756</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0005211641381683857</v>
+        <v>-0.01534550384976635</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.02147494217230366</v>
+        <v>-0.01244063093362886</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL8" t="n">
         <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001963345957021503</v>
+        <v>0.03690970665248082</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
         <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1279236136552981</v>
+        <v>0.0003817730660428436</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.2819558614295105</v>
+        <v>0.01526826853534006</v>
       </c>
       <c r="BR8" t="n">
         <v>-0</v>
       </c>
       <c r="BS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
@@ -4637,19 +4637,19 @@
         <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.1561067005972061</v>
+        <v>0.05042370949755173</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.07123043460198121</v>
+        <v>-0.004725514264347272</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0.3360018319968002</v>
+        <v>-0.0164540810861443</v>
       </c>
       <c r="CA8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>-0.1134693227935967</v>
+        <v>-0.0215473279015567</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4673,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.03682039964727444</v>
+        <v>0.001166481975519713</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.08854217551136742</v>
+        <v>0.03197932958283167</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0.04997255954073747</v>
+        <v>-0.01426569860395813</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.1232900398540781</v>
+        <v>0.01127009673830396</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0.1801526642014442</v>
+        <v>-0.02018614634432413</v>
       </c>
       <c r="CS8" t="n">
         <v>-0</v>
@@ -4712,28 +4712,28 @@
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0.1054302852355104</v>
+        <v>-0.01643195030832276</v>
       </c>
       <c r="CX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
         <v>-0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.004589267626800961</v>
+        <v>0.001283678286506492</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0911306817372574</v>
+        <v>0.03906657131468847</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
@@ -4745,19 +4745,19 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01131061023780682</v>
+        <v>-0.003674238986659072</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.05730746148991724</v>
+        <v>0.01364978380863715</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0.06058147719932026</v>
+        <v>0.007284891781154905</v>
       </c>
       <c r="DK8" t="n">
         <v>0</v>
@@ -4769,52 +4769,52 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>-0.00792027742316086</v>
+        <v>-0.0009306954130474198</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.03040790740937421</v>
+        <v>0.03832836545317418</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0.09214346809398392</v>
+        <v>0.0122036165260014</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.03366224594012112</v>
+        <v>0.002765974657081912</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.05569136820614744</v>
+        <v>-0.01593392536954518</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0.08394204402003273</v>
+        <v>-0.001401982496032884</v>
       </c>
       <c r="EC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
@@ -4823,10 +4823,10 @@
         <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>-0.1945978110772787</v>
+        <v>-0.01529458603975213</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4835,16 +4835,16 @@
         <v>0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.1536025586921519</v>
+        <v>-0.002724046881581673</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.1576842051957137</v>
+        <v>0.02489492542695081</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
@@ -4853,19 +4853,19 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>-0.01654071588088296</v>
+        <v>-0.02186314946749723</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.005979736107560549</v>
+        <v>-0.006333678343115123</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.2076962795567938</v>
+        <v>0.03023856024828426</v>
       </c>
       <c r="EU8" t="n">
         <v>0</v>
@@ -4877,49 +4877,49 @@
         <v>0</v>
       </c>
       <c r="EX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY8" t="n">
-        <v>-0.1155578018721811</v>
+        <v>-0.01840243294590506</v>
       </c>
       <c r="EZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.02542626525959026</v>
+        <v>0.003919387789580353</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.1156863005138137</v>
+        <v>0.03577974053258065</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0.0674794713724802</v>
+        <v>-0.01366106361411641</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.0570818017981403</v>
+        <v>-0.02597536768675237</v>
       </c>
       <c r="FL8" t="n">
-        <v>-0.0221588609537963</v>
+        <v>0.02294932343640471</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
@@ -4928,28 +4928,28 @@
         <v>-0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>-0.05551435753945699</v>
+        <v>-0.007345270851111301</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT8" t="n">
-        <v>-0.02073611748805557</v>
+        <v>0.009248753259162884</v>
       </c>
       <c r="FU8" t="n">
-        <v>-0.004222548250898456</v>
+        <v>0.0004631468097664364</v>
       </c>
       <c r="FV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW8" t="n">
         <v>-0</v>
@@ -4961,10 +4961,10 @@
         <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.02834426269663641</v>
+        <v>-0.02429685326407507</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
@@ -4973,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0.03081609257674282</v>
+        <v>-0.01011781974559094</v>
       </c>
       <c r="GE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG8" t="n">
         <v>0</v>
@@ -4987,52 +4987,52 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1100171157229519</v>
+        <v>-0.547536452357312</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2261868924434298</v>
+        <v>0.4229969525609661</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02644502219185713</v>
+        <v>0.06826763750932799</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02436842957049113</v>
+        <v>-0.11804636757738</v>
       </c>
       <c r="L9" t="n">
         <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06383790331907194</v>
+        <v>0.1450033920258753</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.008947220161499847</v>
+        <v>0.03125678605072967</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02424344652662578</v>
+        <v>-0.1215252397157671</v>
       </c>
       <c r="U9" t="n">
         <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.07112816078262228</v>
+        <v>0.1108848442279678</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1286838930774032</v>
+        <v>0.0160359785377091</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
         <v>-0</v>
@@ -5071,16 +5071,16 @@
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.07433067080707942</v>
+        <v>-0.1200536597693607</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1074107486682659</v>
+        <v>-0.01118397436199644</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.05261148649762324</v>
+        <v>0.02019273564135845</v>
       </c>
       <c r="AG9" t="n">
         <v>-0</v>
@@ -5092,31 +5092,31 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.06213700919157644</v>
+        <v>-0.1456834126647889</v>
       </c>
       <c r="AM9" t="n">
         <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.002516791571764954</v>
+        <v>0.1116914519563638</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01134732908414216</v>
+        <v>0.1269596472516733</v>
       </c>
       <c r="AP9" t="n">
         <v>-0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>-0</v>
@@ -5125,52 +5125,52 @@
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.1747433693096187</v>
+        <v>-0.5267422695402201</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1043203965236024</v>
+        <v>0.3293351443559449</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.02299284710541775</v>
+        <v>0.0245353126726451</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.02230091359440472</v>
+        <v>-0.05280693561083062</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.07182436225464683</v>
+        <v>0.04020602871945585</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.001157331523023009</v>
+        <v>0.07191956941435235</v>
       </c>
       <c r="BH9" t="n">
         <v>-0</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>-0</v>
@@ -5179,22 +5179,22 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.07436233378590983</v>
+        <v>-0.03547839558889505</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.02224985150917546</v>
+        <v>-0.1345848849876933</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.03112257104375123</v>
+        <v>-0.1080230732057737</v>
       </c>
       <c r="BQ9" t="n">
         <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
@@ -5206,79 +5206,79 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0.01268778719185146</v>
+        <v>-0.4156453465925728</v>
       </c>
       <c r="BW9" t="n">
         <v>-0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.119399642418597</v>
+        <v>0.2647598681971799</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.06466309685954118</v>
+        <v>-0.02427701501964301</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.04582086310219319</v>
+        <v>0.129904499760704</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.06246020838104378</v>
+        <v>-0.1019576086317599</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.02168145429304319</v>
+        <v>0.03847736604543436</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.058782642819018</v>
+        <v>-0.03021549247835211</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.02926072394334972</v>
+        <v>0.1236441814655634</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.160974709802005</v>
+        <v>0.2355964694819475</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
@@ -5287,70 +5287,70 @@
         <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.03917845391855921</v>
+        <v>0.153522393898556</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.06577925856447145</v>
+        <v>-0.1264809555925134</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01862761399833497</v>
+        <v>0.03535572155583987</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.09902537014460402</v>
+        <v>0.06636459318879355</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.002711255405919247</v>
+        <v>-0.179151679368873</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.01645787123840228</v>
+        <v>-0.007037525581287837</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK9" t="n">
         <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.02162177415708769</v>
+        <v>0.09943180555560621</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0181588487674533</v>
+        <v>0.01655586822293811</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.1179007574920582</v>
+        <v>0.08908554600377144</v>
       </c>
       <c r="DS9" t="n">
         <v>-0</v>
@@ -5362,22 +5362,22 @@
         <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.05114710711836363</v>
+        <v>0.1767767077942589</v>
       </c>
       <c r="DY9" t="n">
         <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.04135323403000909</v>
+        <v>0.06492267978911337</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01606928766106119</v>
+        <v>-0.03621404398348074</v>
       </c>
       <c r="EB9" t="n">
         <v>-0</v>
@@ -5386,25 +5386,25 @@
         <v>-0</v>
       </c>
       <c r="ED9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.02809882418782987</v>
+        <v>0.06547135588333877</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.1128323967532248</v>
+        <v>-0.1131474177949861</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.06594099636629049</v>
+        <v>-0.05730911961655646</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
@@ -5416,79 +5416,79 @@
         <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.01134388327487161</v>
+        <v>0.1752777147956995</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.001743542860286682</v>
+        <v>-0.07027144126651125</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.04416640056208864</v>
+        <v>0.03077373592656375</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.03997246444566803</v>
+        <v>0.147761222450078</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.05542000650016851</v>
+        <v>-0.1264457961036675</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.03581059688584685</v>
+        <v>0.05764027470398709</v>
       </c>
       <c r="FC9" t="n">
         <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0.00529998065308947</v>
+        <v>0.1169394360009532</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.06570047693168153</v>
+        <v>-0.09756166718123793</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02164379009374058</v>
+        <v>-0.01811199059837642</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
@@ -5497,46 +5497,46 @@
         <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.01091520100129241</v>
+        <v>-0.05046600644604425</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.003181634559166688</v>
+        <v>0.04299459517562762</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.004923987951656947</v>
+        <v>0.0711530881802369</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.06035984922001825</v>
+        <v>0.02126345636744046</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.05743630585453312</v>
+        <v>-0.02710973021421805</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
@@ -5545,30 +5545,30 @@
         <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
         <v>-0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.3017656482574297</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2018207266613671</v>
+        <v>-0.07990930653393963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01840311162578326</v>
+        <v>-0.02654266565282948</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5577,34 +5577,34 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.09964709098778776</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.08347348576049204</v>
       </c>
       <c r="L10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0670959485736857</v>
+        <v>-0.006227333897861984</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.007989067398067</v>
+        <v>-0.01555403073214295</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.007551257508217694</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -5613,52 +5613,52 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.09093443021960643</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.003974651668912907</v>
+        <v>-0.01874267695440963</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.08578214120010512</v>
+        <v>0.01589974757612766</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.04545050606122543</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.03869440976836925</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.06712587124985615</v>
+        <v>-0.01592635975434656</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01595942794361412</v>
+        <v>-0.02295562794138831</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03433401504098001</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
@@ -5667,25 +5667,25 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.03316420104703968</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.08121675529448361</v>
+        <v>-0.0551712126526865</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.05045717456354331</v>
+        <v>-0.05071571855858059</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.02404416251722343</v>
+        <v>-0</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.3759742722037662</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1508642319097091</v>
+        <v>0.01914177744079298</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.04174824445619549</v>
+        <v>0.09262518626204748</v>
       </c>
       <c r="AY10" t="n">
         <v>-0</v>
@@ -5712,25 +5712,25 @@
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.1871271743442979</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.006142377567785751</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.05477757534330407</v>
+        <v>-0.03183730670170884</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.01283887906645501</v>
+        <v>-0.05135140265027405</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
@@ -5739,34 +5739,34 @@
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.01106423341570385</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.05467811713358755</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.002291549022961381</v>
+        <v>0.0454925134240363</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.02324493634313606</v>
+        <v>0.1177224106244065</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.09232211483687151</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,70 +5775,70 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.1960066316380888</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1208735510335625</v>
+        <v>0.02166843389483894</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.02476148111453654</v>
+        <v>0.0337049356269357</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.1354001177535049</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.08066729636694167</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.08440654592803011</v>
+        <v>0.008972519369115433</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01856347628483698</v>
+        <v>-0.01535078414867847</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.03414660951358121</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>-0.02215183954925417</v>
       </c>
       <c r="CO10" t="n">
         <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.07187870597594881</v>
+        <v>-0.06066607291819601</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1033849359654418</v>
+        <v>-0.09967332353897548</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
@@ -5847,34 +5847,34 @@
         <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.05953951621270319</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.07117243338240935</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.07449376987246983</v>
+        <v>0.02248849534178899</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.03004735416397666</v>
+        <v>-0.01489478581314506</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01886038687470564</v>
+        <v>-0</v>
       </c>
       <c r="DD10" t="n">
         <v>0</v>
@@ -5883,52 +5883,52 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>0.003741794435929306</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.003631479840378027</v>
+        <v>0.01871409537674262</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04710226154229818</v>
+        <v>0.03702391390006553</v>
       </c>
       <c r="DJ10" t="n">
         <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.02671495363899683</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.04885650802916838</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.02616859293905931</v>
+        <v>0.01446766111850815</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.001609211221944669</v>
+        <v>-0.03316953437169993</v>
       </c>
       <c r="DS10" t="n">
         <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.08480516607050316</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,79 +5937,79 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>0.0438489188304958</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01203915135474379</v>
+        <v>0.001149955514790745</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.002254306168558862</v>
+        <v>-0.05687772426192475</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0505901141533374</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.06911683363151017</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1377351825229784</v>
+        <v>0.02299052186341357</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.04644043302297798</v>
+        <v>0.02988402928089696</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.08375448328333178</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.05176796436357432</v>
       </c>
       <c r="EQ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.05310306883616857</v>
+        <v>0.03111458654780713</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.01243226687366374</v>
+        <v>-0.007250029016247001</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0005337381822200435</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,261 +6018,261 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.07233281828392406</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.06885638272810761</v>
+        <v>0.01625004158412825</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.03176662628739552</v>
+        <v>-0.006410697439343241</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.03938987156969107</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
         <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.009991464683040772</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.08163940612234023</v>
+        <v>0.0117035573966711</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.1259943082808168</v>
+        <v>-0.03400145871863834</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01164503023409342</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.001742342230571659</v>
       </c>
       <c r="FR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.01089767409111743</v>
+        <v>0.002632620354687212</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.02456720705828375</v>
+        <v>0.003404350071809533</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.06202864522695731</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.01634329917391489</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>-0.02207309046998896</v>
+        <v>-0.03699785307823184</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.02022260609695174</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3860685444695524</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2471868818711658</v>
+        <v>-0.1141690800741555</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1801691011121325</v>
+        <v>-0.08271188432472305</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1663563809414459</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1829355616396811</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01936548337800394</v>
+        <v>-0.01446054530959619</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.007879906986108175</v>
+        <v>-0.04453142952883181</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0213197805689315</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.1369772785662917</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.154784287647607</v>
+        <v>0.02982205587082784</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.3774315230690508</v>
+        <v>0.07347206322869854</v>
       </c>
       <c r="X11" t="n">
         <v>-0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.02016461031270614</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.1260752604204138</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1429977502316025</v>
+        <v>-0.04687873967860352</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2433933356857316</v>
+        <v>-0.03123882427387175</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.05898691267687899</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.0517373757069514</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.07255759163476337</v>
+        <v>-0.04693577510272039</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.09626242327872572</v>
+        <v>-0.02873920170596778</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.02938913806725876</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.4352448661264277</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3530867235944224</v>
+        <v>0.003029365963111259</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1919690147957816</v>
+        <v>0.1354190088360794</v>
       </c>
       <c r="AY11" t="n">
         <v>-0</v>
@@ -6284,52 +6284,52 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.174540407370492</v>
+        <v>-0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.02836527991567364</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.0188718906769321</v>
+        <v>-0.03404178528994286</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0284832896719963</v>
+        <v>-0.1253338311084696</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.0449325721379573</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0</v>
+        <v>0.01864119223171074</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0416079418711317</v>
+        <v>0.04445658946713062</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.02967617506129062</v>
+        <v>0.05145281084716107</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
@@ -6338,22 +6338,22 @@
         <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.02442965493754834</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.2604690935085517</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.1905260386432585</v>
+        <v>-0.02231307279963652</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.1536821496084398</v>
+        <v>0.07943533834213067</v>
       </c>
       <c r="BZ11" t="n">
         <v>-0</v>
@@ -6362,52 +6362,52 @@
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.139358921164636</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-0</v>
+        <v>-0.09827690266432829</v>
       </c>
       <c r="CF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.05705338460362321</v>
+        <v>0.02618285090985644</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.02883120565413952</v>
+        <v>-0.02315152757546453</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.05830392653382484</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.05345134043065182</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.01278597033994559</v>
+        <v>-0.07476594241106028</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.05114250771258053</v>
+        <v>-0.167076016087498</v>
       </c>
       <c r="CR11" t="n">
         <v>0</v>
@@ -6416,217 +6416,217 @@
         <v>-0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.03939036267636924</v>
+        <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0</v>
+        <v>-0.09150580622032395</v>
       </c>
       <c r="CX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.05542222617801246</v>
+        <v>0.03576284586004064</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.0182497356860306</v>
+        <v>-0.01998796279913451</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.05647683197144969</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>-0</v>
+        <v>-0.04256947303042163</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.05554764519957006</v>
+        <v>0.01581421298383295</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.004030070066725877</v>
+        <v>0.0004951969159955818</v>
       </c>
       <c r="DJ11" t="n">
         <v>0</v>
       </c>
       <c r="DK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0.01023980450310143</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>-0</v>
+        <v>-0.05204242744462474</v>
       </c>
       <c r="DP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.1267162085858078</v>
+        <v>-0.005463698325473166</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03166868935253572</v>
+        <v>-0.06204460443714819</v>
       </c>
       <c r="DS11" t="n">
         <v>0</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.05827859929231298</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0</v>
+        <v>0.08895742217609767</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.05526696420918899</v>
+        <v>-0.0204191241031179</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.03961410754830948</v>
+        <v>-0.006132100995516686</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.01852372492853624</v>
+        <v>-0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.06172239568230441</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.03601248551341274</v>
+        <v>0.03635916135260377</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.2150052028937109</v>
+        <v>0.03997454528862483</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
         <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0962389524080044</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.07627387971790586</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.03022112467175797</v>
+        <v>0.0206473654388265</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.1169210231456119</v>
+        <v>0.03062252082218282</v>
       </c>
       <c r="ET11" t="n">
         <v>-0</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.05047760543101944</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>-0</v>
+        <v>-0.1025882726777533</v>
       </c>
       <c r="EZ11" t="n">
         <v>-0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.05947828419582492</v>
+        <v>0.04450534965843048</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.01823686533536309</v>
+        <v>-0.02725858841128379</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0721281104915641</v>
+        <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>0.007373691659527414</v>
       </c>
       <c r="FI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.04224271399877397</v>
+        <v>0.06288626401431556</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.06624409839980915</v>
+        <v>-0.04604291415433229</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6635,72 +6635,72 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0.02699476826871628</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>-0.01410257397447073</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>-0.01564210999508127</v>
+        <v>-0.1281988544453152</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.01720529909116339</v>
+        <v>0.02382377109969946</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.04249471852510669</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.04158371759998803</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>-0.01900249349975162</v>
+        <v>-0.04610191740933486</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE11" t="n">
         <v>-0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0415068489705424</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6721,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -6748,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -6775,13 +6775,13 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
@@ -6802,13 +6802,13 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
@@ -6829,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -6856,13 +6856,13 @@
         <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
@@ -6883,13 +6883,13 @@
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM12" t="n">
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
         <v>0</v>
@@ -6910,13 +6910,13 @@
         <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX12" t="n">
         <v>0</v>
@@ -6937,13 +6937,13 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -6964,13 +6964,13 @@
         <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
         <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -7018,13 +7018,13 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
         <v>0</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -7045,13 +7045,13 @@
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO12" t="n">
         <v>0</v>
       </c>
       <c r="DP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" t="n">
         <v>0</v>
@@ -7099,13 +7099,13 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
         <v>0</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
         <v>0</v>
@@ -7126,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
         <v>0</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
         <v>0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
         <v>0</v>
@@ -7180,13 +7180,13 @@
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
         <v>0</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
         <v>0</v>
@@ -7207,13 +7207,13 @@
         <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
         <v>0</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
         <v>0</v>
@@ -7263,133 +7263,133 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.446939403236343</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.1052658734163721</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1261812577591714</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.08031343194433806</v>
+        <v>-0.04320202057340328</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.05905002278961895</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2701444364271913</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.04295118699287189</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.04852961629461371</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1532820205782157</v>
+        <v>-0.02626478918343891</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.01779210163083662</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03926886524509225</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.004315201574558581</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.03916224648285023</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.215394530465514</v>
+        <v>-0.02118477643181161</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.02208182202543177</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02131928836535979</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.02178893815435579</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02064125203169025</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02787322429489292</v>
+        <v>0.02255643972430705</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>0.008955529374286314</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.105641676605155</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.01934415261992584</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.008497932165681871</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01964960866298892</v>
+        <v>-0.01134245279903199</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.02047164354368227</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
@@ -7398,25 +7398,25 @@
         <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.244599272381655</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.08397229367139974</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.1098650328287137</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.002362014189761749</v>
+        <v>-0.03965968528460088</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>-0.0307696123454659</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
@@ -7425,49 +7425,49 @@
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.09230207431876873</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.03177258358605593</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.03051164635124723</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01644762425492503</v>
+        <v>-0.01930709527244431</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.01243948089378175</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.03665755549332596</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.04010860812152438</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.05523789318306808</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1589427261073971</v>
+        <v>0.02954463615503292</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.01416156279207613</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,28 +7476,28 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.2178530837666513</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.04674285588966193</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0.03260879939983662</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
         <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01331180653608486</v>
+        <v>-0.01788130102593049</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0.002134030280392688</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
@@ -7506,76 +7506,76 @@
         <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.1166367319280412</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.01621965963627819</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.04406851306630425</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.02494223012013143</v>
+        <v>0.005475792416234756</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0.01726675697218584</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.008798016125892792</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.005136498689521495</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.003225659679710932</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
         <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.1516650574418026</v>
+        <v>-0.002702375558682941</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.02753638282070571</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.09678239729657566</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.0112676657924886</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.04725190633266276</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.03917656084047928</v>
+        <v>0.008010826526126556</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.022009830323133</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,25 +7584,25 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.008417608105029003</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.004415211012725574</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.02510506976568458</v>
+        <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.00278313757843142</v>
+        <v>0.02306287208739509</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.00406529454022137</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,28 +7611,28 @@
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.01259923289220128</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.01511276425078155</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0.001565524336229692</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
         <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.03109150981456746</v>
+        <v>0.0104815703175914</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.01640995735574316</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
         <v>0</v>
@@ -7641,175 +7641,175 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.008477720479693023</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.001985719039636225</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0.008471186757320667</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
         <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.09549174417895474</v>
+        <v>-0.02253200220825065</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.01452478347826923</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE13" t="n">
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.1881395437059869</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.009558445313801806</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.05398871230174314</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.07246547899082866</v>
+        <v>0.005821113327950961</v>
       </c>
       <c r="EK13" t="n">
-        <v>0</v>
+        <v>0.01807824704006479</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
       </c>
       <c r="EN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.03460849562724372</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>0.003430035122489143</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.02764497031766482</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
         <v>0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02938783091443108</v>
+        <v>0.01151076542301022</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.01703347142483065</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.09731596836409959</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.007987245776195473</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.04220494513454422</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.02117983375266523</v>
+        <v>0.005474481293517712</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.02218428055851368</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0.1015159128517524</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0</v>
+        <v>-0.0161118348492827</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.03196251096545732</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
         <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.01684337165155205</v>
+        <v>-0.03139741915767542</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>0.02060621513307019</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0.007286551913532858</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.002414092888160417</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.01537797065706179</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
         <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.0005513506495548351</v>
+        <v>0.00048274181441153</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.008386938207461912</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.07974409532549337</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.01601264112464079</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0.01830446375835969</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
         <v>0</v>
@@ -7818,13 +7818,13 @@
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.01796211548304342</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
         <v>0</v>
@@ -7832,106 +7832,106 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.324604377630861</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.08973733290996719</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03252227272996097</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0620935928564674</v>
+        <v>-0.04363036533815026</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.02156490498913307</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2165030045573357</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0.03875571495573658</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01758586520477494</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1081014531896344</v>
+        <v>-0.03113179646541618</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-0.006479027623837866</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.02804505137692514</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0.006638853685983463</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.03905440278444073</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1573887090011122</v>
+        <v>-0.006616592756181581</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.01804225124850013</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01508222218937829</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>0.01810194689673993</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02464576627973151</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.03915375825774675</v>
+        <v>0.02277404962828885</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0.007477851005114849</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -7940,133 +7940,133 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.07286606586389557</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.01467252895541128</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.006344345952291678</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.01858153143290848</v>
+        <v>-0.01457688889906194</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>-0.01261926141194078</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1727170317822629</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.07458258276590379</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.02533517545926629</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.0180757285407605</v>
+        <v>-0.02270858578158457</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>-0.005921112505210411</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.06806550181078683</v>
+        <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.02902540495401127</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0.03282597424927362</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.02125127314313209</v>
+        <v>-0.02440380830372408</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>-0.01810430359439813</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.02571500304078422</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0</v>
+        <v>0.04438539492627638</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.03308820046248813</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.08863196873750172</v>
+        <v>0.02128943147858666</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0.01175582963469083</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.1500460108689732</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>0.03760482512473504</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.007479750431895973</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.00102755259576926</v>
+        <v>-0.009207733777462635</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0</v>
+        <v>0.01177033560236127</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
         <v>-0</v>
@@ -8075,103 +8075,103 @@
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.08223819800070456</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>0</v>
+        <v>-0.01113963544823329</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.01438833493100303</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.01981879528603367</v>
+        <v>0.008540381151450074</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>0.009504973902215511</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.002065546176377074</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.007565671789103549</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0.0002832036520398887</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
         <v>-0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.09818728337933862</v>
+        <v>-0.00478063190907632</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>-0.01170301908861326</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.07005836677779638</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>-0</v>
+        <v>-0.006111028065611183</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.01939399198484399</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.02098356992645481</v>
+        <v>0.007956574682539366</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>0.01165319662273927</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.007668859936379489</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0.008646543992966443</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.01238941475349983</v>
+        <v>-0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.002091155292256163</v>
+        <v>0.000661436020803211</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-0</v>
+        <v>0.003792270102109945</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
@@ -8180,52 +8180,52 @@
         <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.003692995139038554</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.01474252436542887</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0.002759431593643435</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.02062574127055844</v>
+        <v>0.01933505821069114</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>-0.02131939216751958</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
         <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.002854119669998309</v>
+        <v>-0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>-0.0003051787991176317</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0.001860063025716048</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
         <v>0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.06881484940005923</v>
+        <v>-0.03126446484648008</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>-0.02569133796986356</v>
       </c>
       <c r="EC14" t="n">
         <v>-0</v>
@@ -8237,163 +8237,163 @@
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.130843869201842</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>0</v>
+        <v>-0.004783702941119086</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0145697595123798</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
         <v>0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.06195863068959408</v>
+        <v>0.006898259031043298</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0.0016330287825996</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.0192257566273495</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>0</v>
+        <v>0.004532262027226124</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.01320309834568897</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.02365606888576225</v>
+        <v>-0.0005377438406086963</v>
       </c>
       <c r="ET14" t="n">
-        <v>-0</v>
+        <v>0.01839370892917774</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.06899975926167641</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>0</v>
+        <v>-0.004578271558871831</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.01575719702154039</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.01182228154759879</v>
+        <v>0.007737370836684438</v>
       </c>
       <c r="FC14" t="n">
-        <v>-0</v>
+        <v>0.01527916163317275</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.07167844814959731</v>
+        <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>-0.007607065827906051</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.003518673589062757</v>
+        <v>0</v>
       </c>
       <c r="FJ14" t="n">
         <v>-0</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.02040912733648446</v>
+        <v>-0.03354914501259099</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>0.01303743320966156</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0.00732571627776246</v>
+        <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0.002179299737852478</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.001202575557154619</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
         <v>-0</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.003443601878886522</v>
+        <v>-0.000401249693616723</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>0.003348842198980361</v>
       </c>
       <c r="FV14" t="n">
         <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.04707989599082286</v>
+        <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0.02228688270709073</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0.001660838092191856</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
         <v>0</v>
       </c>
       <c r="GC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>-0.01637251541976336</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8887,10 +8887,10 @@
         <v>0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI15" t="n">
         <v>0</v>
@@ -8914,10 +8914,10 @@
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR15" t="n">
         <v>0</v>
@@ -8970,52 +8970,52 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3896571912827563</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0</v>
+        <v>0.3187051246916599</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06643742184261824</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1489492520515811</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01330210823946297</v>
+        <v>-0.09002751817248469</v>
       </c>
       <c r="F16" t="n">
-        <v>-0</v>
+        <v>-0.0622754085585477</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03528988194696493</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3415613700029935</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0.1992021633405539</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.03996768946571708</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-0.1100223130379771</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.07936389311586342</v>
+        <v>-0.06384690876651669</v>
       </c>
       <c r="O16" t="n">
-        <v>-0</v>
+        <v>-0.03777947866233954</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.01874387288922718</v>
+        <v>-0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9024,52 +9024,52 @@
         <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02928990304594885</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>0.06748234503628472</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.05044742465499307</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-0.01254594909241052</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.1185491705572444</v>
+        <v>0.05182215268681091</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.04903665508515107</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.07140349625109778</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01107609996397986</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.05591451940330632</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.03640676812139912</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.04098066803660044</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.004452000104523531</v>
+        <v>-0.0113363782505748</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0</v>
+        <v>0.01064786618755916</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.05684757300447813</v>
+        <v>-0</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
@@ -9078,79 +9078,79 @@
         <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.07635236151434419</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.0004988108534246238</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.001483852847967502</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-0.02780742572324407</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.007273883523988698</v>
+        <v>-0.03672815432272445</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0</v>
+        <v>-0.03421535914898376</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.01047797963111525</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1863334747254694</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.3203659829527116</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.0607944592289122</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>-0.0235898126052109</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.03855206091076527</v>
+        <v>0.02984768583685589</v>
       </c>
       <c r="AY16" t="n">
-        <v>0</v>
+        <v>0.02106020949174865</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.04633883998682267</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0749942140488232</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0.001072429440116345</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.01057225218420777</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.02268530580535243</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.02915730600899869</v>
+        <v>-0.1044271899895412</v>
       </c>
       <c r="BH16" t="n">
-        <v>0</v>
+        <v>-0.0501200693083438</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0.003389052495395203</v>
+        <v>-0</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -9159,52 +9159,52 @@
         <v>-0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.04867334070052104</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.0592966882250069</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.02587258045888289</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>0.06457274857217001</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.1037607788616475</v>
+        <v>0.06362005606816112</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0</v>
+        <v>0.01862661953836153</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.02402924873340384</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT16" t="n">
         <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.1559367308423964</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.152904167159655</v>
       </c>
       <c r="BW16" t="n">
-        <v>-0.02378209743364028</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0</v>
+        <v>0.03566426065558426</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.02482247021480325</v>
+        <v>-0.009301953566094579</v>
       </c>
       <c r="BZ16" t="n">
-        <v>-0</v>
+        <v>0.03284267381300353</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.02060529149262733</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>-0</v>
@@ -9213,52 +9213,52 @@
         <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0.09475840528951489</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0.061904795409631</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.01958037470064549</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>-0</v>
+        <v>0.01143126725340684</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.004926715876806783</v>
+        <v>-0.004601576058983013</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.03282588123079866</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0.01432270414030096</v>
+        <v>-0</v>
       </c>
       <c r="CK16" t="n">
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.005025812713299695</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>-0</v>
+        <v>-0.02433470009147189</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.01486399024163348</v>
+        <v>0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.09528500233630727</v>
       </c>
       <c r="CQ16" t="n">
-        <v>-0.1140421215369744</v>
+        <v>-0.06538539023569021</v>
       </c>
       <c r="CR16" t="n">
-        <v>-0</v>
+        <v>-0.07160432678532314</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0.04179752973376514</v>
+        <v>-0</v>
       </c>
       <c r="CT16" t="n">
         <v>-0</v>
@@ -9267,25 +9267,25 @@
         <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.08606050471423725</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>-0</v>
+        <v>-0.05000253652223097</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.022616272131371</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>0</v>
+        <v>0.03351915909049587</v>
       </c>
       <c r="CZ16" t="n">
-        <v>-0.0303761777486904</v>
+        <v>-0.006271334416042406</v>
       </c>
       <c r="DA16" t="n">
-        <v>-0</v>
+        <v>0.04319125901262801</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0004465141358193312</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
         <v>-0</v>
@@ -9294,255 +9294,255 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.006567581627267905</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0.001289946644931425</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.01241078096878348</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.0591172678738161</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.01706139597937083</v>
+        <v>-0.004797224275910277</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0</v>
+        <v>0.005229672910767832</v>
       </c>
       <c r="DK16" t="n">
-        <v>-0.004015203675104734</v>
+        <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.01192892024135151</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0.0254965042945452</v>
       </c>
       <c r="DP16" t="n">
-        <v>-0.00761614816947528</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.05324006702549526</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.0234400058182377</v>
+        <v>0.003712847301586662</v>
       </c>
       <c r="DS16" t="n">
-        <v>-0</v>
+        <v>-0.008459506739143901</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.04077443436376559</v>
+        <v>0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.009215711862652324</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>-0</v>
+        <v>0.01337753817993134</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.02072126414871383</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0</v>
+        <v>0.004357915243516064</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.02599950647970023</v>
+        <v>-0.05459072035472773</v>
       </c>
       <c r="EB16" t="n">
-        <v>0</v>
+        <v>0.007400929234524437</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0.008287071133088082</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0.1560374337468911</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.08162364597873287</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.01143149977875661</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.05743983815859426</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.01256542217913722</v>
+        <v>0.04949568264106391</v>
       </c>
       <c r="EK16" t="n">
-        <v>0</v>
+        <v>0.006716332308729729</v>
       </c>
       <c r="EL16" t="n">
-        <v>-0.03689119082311578</v>
+        <v>-0</v>
       </c>
       <c r="EM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN16" t="n">
         <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0.02037637699242266</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0.03908186418205387</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.01711781384502421</v>
+        <v>-0</v>
       </c>
       <c r="ER16" t="n">
-        <v>0</v>
+        <v>0.003316639717130403</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.03869011769255065</v>
+        <v>-0.02262352136749712</v>
       </c>
       <c r="ET16" t="n">
-        <v>-0</v>
+        <v>0.06565069416797123</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.01029155369159077</v>
+        <v>0</v>
       </c>
       <c r="EV16" t="n">
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0.08319202967702219</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.04613182958976267</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.0222937050160742</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>0.0176625289103931</v>
       </c>
       <c r="FB16" t="n">
-        <v>-0.01696430152179703</v>
+        <v>0.006520506445012923</v>
       </c>
       <c r="FC16" t="n">
-        <v>-0</v>
+        <v>0.03459328209596833</v>
       </c>
       <c r="FD16" t="n">
-        <v>-1.741874864847624e-05</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF16" t="n">
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0.08357788459553542</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0</v>
+        <v>0.03965977904545533</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.04014139799676059</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0</v>
+        <v>0.05704261889428647</v>
       </c>
       <c r="FK16" t="n">
-        <v>-0.06174864212371907</v>
+        <v>-0.00603480969582025</v>
       </c>
       <c r="FL16" t="n">
-        <v>-0</v>
+        <v>-0.002910244989505028</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0306504819445491</v>
+        <v>-0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0.01249833746432657</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0</v>
+        <v>0.01095635583721517</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.008802522504583929</v>
+        <v>0</v>
       </c>
       <c r="FS16" t="n">
-        <v>-0</v>
+        <v>0.01201145400328422</v>
       </c>
       <c r="FT16" t="n">
-        <v>-0.003397273273944006</v>
+        <v>0.006632200171119691</v>
       </c>
       <c r="FU16" t="n">
-        <v>0</v>
+        <v>0.01082056739895922</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0.008606797286324614</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
         <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.06258367166911788</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
+        <v>-0.006014361215978115</v>
       </c>
       <c r="GA16" t="n">
-        <v>-0.01147300485212071</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>0</v>
+        <v>-0.04180194767149894</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0.01483391711139229</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.009005424857938838</v>
+        <v>0</v>
       </c>
       <c r="GF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -9620,10 +9620,10 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -9674,10 +9674,10 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV17" t="n">
         <v>0</v>
@@ -9701,10 +9701,10 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
@@ -9728,10 +9728,10 @@
         <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
@@ -9755,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -9782,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -9809,10 +9809,10 @@
         <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
@@ -9863,10 +9863,10 @@
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG17" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH17" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ17" t="n">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI17" t="n">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR17" t="n">
         <v>0</v>
@@ -10108,160 +10108,160 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6344386635045235</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0.1507833027504652</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2041115044504879</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04355401469503323</v>
+        <v>-0.07467417371888677</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>-0.06653412378738222</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.644721772165223</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1094409410262945</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.1668310371362169</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2555607515480784</v>
+        <v>-0.05496168156868961</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>-0.03744628605783663</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q18" t="n">
         <v>-0</v>
       </c>
       <c r="R18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.04263076119003393</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0</v>
+        <v>0.01463975394307872</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.08295420774122633</v>
+        <v>-0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.2302491206419042</v>
+        <v>-0.02316929884272893</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.01937607019138276</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0358040448881706</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.02767508389773804</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0414983897002522</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.05983209473919626</v>
+        <v>0.02618960847411302</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0</v>
+        <v>-0.001143404702909475</v>
       </c>
       <c r="AH18" t="n">
         <v>-0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.11090129966003</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.02473386421884555</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.01901270957683776</v>
+        <v>-0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.04811379405637698</v>
+        <v>-0.01232726247392478</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0</v>
+        <v>-0.03229264730419328</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.2636571624491698</v>
+        <v>-0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.09588355770063949</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.1332922075085128</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.08642191863683278</v>
+        <v>-0.0324299892848357</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>-0.03545442588276625</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
         <v>-0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.1236277388062408</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>0.02983601455468899</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.04648014515006522</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.09087277234866367</v>
+        <v>-0.04119053948865173</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0</v>
+        <v>-0.005366368448716368</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -10297,22 +10297,22 @@
         <v>-0</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.03986913821233883</v>
+        <v>-0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>0.04251893030799123</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.05594186281048837</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
         <v>0</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.1561854229856462</v>
+        <v>0.02635054973591057</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0</v>
+        <v>0.01899540148185775</v>
       </c>
       <c r="BR18" t="n">
         <v>-0</v>
@@ -10321,28 +10321,28 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.2318001393640369</v>
+        <v>-0</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.05881871221633909</v>
       </c>
       <c r="BW18" t="n">
-        <v>-0.06746343689864033</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>-0.04670304576410356</v>
+        <v>-0.02185609697105313</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-0</v>
+        <v>0.005844403953537277</v>
       </c>
       <c r="CA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="n">
         <v>-0</v>
@@ -10351,25 +10351,25 @@
         <v>-0</v>
       </c>
       <c r="CD18" t="n">
-        <v>-0.1312205804658288</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>-0.0190709811779678</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.03468136857833277</v>
+        <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.02156979554369633</v>
+        <v>0.007675109732017718</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0</v>
+        <v>0.01547887986884864</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
@@ -10378,49 +10378,49 @@
         <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>-0.002176695523267991</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>-0</v>
+        <v>0.001084650870710764</v>
       </c>
       <c r="CO18" t="n">
-        <v>-0.008393101555031554</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
         <v>-0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-0.1062624836614433</v>
+        <v>-0.01264115901661678</v>
       </c>
       <c r="CR18" t="n">
-        <v>0</v>
+        <v>-0.02859485132024796</v>
       </c>
       <c r="CS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT18" t="n">
         <v>-0</v>
       </c>
       <c r="CU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>-0.1105719947940081</v>
+        <v>-0</v>
       </c>
       <c r="CW18" t="n">
-        <v>-0</v>
+        <v>-0.01511049122574344</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.03779180289560467</v>
+        <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>-0.02796585389065769</v>
+        <v>0.005730089539273469</v>
       </c>
       <c r="DA18" t="n">
-        <v>0</v>
+        <v>0.02210293220111836</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
@@ -10429,160 +10429,160 @@
         <v>-0</v>
       </c>
       <c r="DD18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="n">
-        <v>-0.001512829634756083</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0</v>
+        <v>0.001469904406129279</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.01178547444391675</v>
+        <v>-0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI18" t="n">
-        <v>-0.02307374692075801</v>
+        <v>0.01673648575857769</v>
       </c>
       <c r="DJ18" t="n">
-        <v>-0</v>
+        <v>0.001094121716201831</v>
       </c>
       <c r="DK18" t="n">
         <v>0</v>
       </c>
       <c r="DL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>-0.01027736959166228</v>
+        <v>-0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0</v>
+        <v>-0.01826452097067918</v>
       </c>
       <c r="DP18" t="n">
-        <v>-0.04460723225335437</v>
+        <v>-0</v>
       </c>
       <c r="DQ18" t="n">
         <v>-0</v>
       </c>
       <c r="DR18" t="n">
-        <v>-0.0135122637433793</v>
+        <v>0.02629721780048799</v>
       </c>
       <c r="DS18" t="n">
-        <v>-0</v>
+        <v>0.0307774575120966</v>
       </c>
       <c r="DT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.005151727826081621</v>
+        <v>-0</v>
       </c>
       <c r="DX18" t="n">
-        <v>-0</v>
+        <v>0.0001847505999447847</v>
       </c>
       <c r="DY18" t="n">
-        <v>-0.005696842556548056</v>
+        <v>0</v>
       </c>
       <c r="DZ18" t="n">
         <v>0</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.08676293239630074</v>
+        <v>-0.02619775491746928</v>
       </c>
       <c r="EB18" t="n">
-        <v>0</v>
+        <v>-0.01772487370828326</v>
       </c>
       <c r="EC18" t="n">
         <v>-0</v>
       </c>
       <c r="ED18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE18" t="n">
         <v>-0</v>
       </c>
       <c r="EF18" t="n">
-        <v>-0.1885935628504246</v>
+        <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0</v>
+        <v>-0.01085945387854833</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.05489472023935823</v>
+        <v>0</v>
       </c>
       <c r="EI18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.06581949602258731</v>
+        <v>0.01774826038541308</v>
       </c>
       <c r="EK18" t="n">
-        <v>0</v>
+        <v>0.002849313117947491</v>
       </c>
       <c r="EL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM18" t="n">
         <v>0</v>
       </c>
       <c r="EN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO18" t="n">
-        <v>-0.04326504678102843</v>
+        <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0</v>
+        <v>-0.004220568307922598</v>
       </c>
       <c r="EQ18" t="n">
-        <v>-0.03398901157672964</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.007267094483739392</v>
+        <v>-0.01063190175657089</v>
       </c>
       <c r="ET18" t="n">
-        <v>-0</v>
+        <v>-0.02310275477909809</v>
       </c>
       <c r="EU18" t="n">
         <v>-0</v>
       </c>
       <c r="EV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX18" t="n">
-        <v>-0.1135087048698496</v>
+        <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>0</v>
+        <v>-0.01192516502674933</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.03113453364937546</v>
+        <v>0</v>
       </c>
       <c r="FA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB18" t="n">
-        <v>-0.01368378991896108</v>
+        <v>0.003181824698183061</v>
       </c>
       <c r="FC18" t="n">
-        <v>-0</v>
+        <v>0.0222865266786864</v>
       </c>
       <c r="FD18" t="n">
         <v>-0</v>
@@ -10591,70 +10591,70 @@
         <v>0</v>
       </c>
       <c r="FF18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG18" t="n">
-        <v>-0.09804853420399881</v>
+        <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>-0</v>
+        <v>-0.01230257420660831</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.04622137185851252</v>
+        <v>-0</v>
       </c>
       <c r="FJ18" t="n">
         <v>-0</v>
       </c>
       <c r="FK18" t="n">
-        <v>-0.01108525421499097</v>
+        <v>-0.0402899169604589</v>
       </c>
       <c r="FL18" t="n">
-        <v>0</v>
+        <v>0.01520103024520643</v>
       </c>
       <c r="FM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>-0.04231156758578544</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0</v>
+        <v>-0.002409298342595829</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.03832561367854757</v>
+        <v>-0</v>
       </c>
       <c r="FS18" t="n">
         <v>-0</v>
       </c>
       <c r="FT18" t="n">
-        <v>-0.01546443023814334</v>
+        <v>-0.0003948844006530285</v>
       </c>
       <c r="FU18" t="n">
-        <v>0</v>
+        <v>0.01479161714737616</v>
       </c>
       <c r="FV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.06657075252222425</v>
+        <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0</v>
+        <v>-0.01431095049276781</v>
       </c>
       <c r="GA18" t="n">
-        <v>-0.04553479155835119</v>
+        <v>0</v>
       </c>
       <c r="GB18" t="n">
         <v>0</v>
@@ -10663,13 +10663,13 @@
         <v>0</v>
       </c>
       <c r="GD18" t="n">
-        <v>-0</v>
+        <v>-0.0228038178607163</v>
       </c>
       <c r="GE18" t="n">
         <v>-0</v>
       </c>
       <c r="GF18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG18" t="n">
         <v>0</v>
